--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/ACD/10/seed3/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/ACD/10/seed3/result_data_KNN.xlsx
@@ -491,7 +491,7 @@
         <v>8.199999999999999</v>
       </c>
       <c r="C4" t="n">
-        <v>-12.124</v>
+        <v>-12.74</v>
       </c>
       <c r="D4" t="n">
         <v>-8.23</v>
@@ -569,7 +569,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-21.58</v>
+        <v>-21.552</v>
       </c>
       <c r="B10" t="n">
         <v>6.17</v>
@@ -597,16 +597,16 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-21.84</v>
+        <v>-21.621</v>
       </c>
       <c r="B12" t="n">
         <v>4.54</v>
       </c>
       <c r="C12" t="n">
-        <v>-12.7</v>
+        <v>-12.72</v>
       </c>
       <c r="D12" t="n">
-        <v>-8.756</v>
+        <v>-8.138999999999999</v>
       </c>
     </row>
     <row r="13">
@@ -620,7 +620,7 @@
         <v>-15.83</v>
       </c>
       <c r="D13" t="n">
-        <v>-7.052</v>
+        <v>-7.792</v>
       </c>
     </row>
     <row r="14">
@@ -673,7 +673,7 @@
         <v>3.89</v>
       </c>
       <c r="C17" t="n">
-        <v>-13.112</v>
+        <v>-13.36</v>
       </c>
       <c r="D17" t="n">
         <v>-7.82</v>
@@ -681,7 +681,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-22.166</v>
+        <v>-22.004</v>
       </c>
       <c r="B18" t="n">
         <v>4.35</v>
@@ -732,7 +732,7 @@
         <v>-13.13</v>
       </c>
       <c r="D21" t="n">
-        <v>-8.156000000000001</v>
+        <v>-7.931</v>
       </c>
     </row>
     <row r="22">
@@ -799,7 +799,7 @@
         <v>6.56</v>
       </c>
       <c r="C26" t="n">
-        <v>-12.274</v>
+        <v>-13.033</v>
       </c>
       <c r="D26" t="n">
         <v>-9.31</v>
@@ -813,7 +813,7 @@
         <v>5.54</v>
       </c>
       <c r="C27" t="n">
-        <v>-12.462</v>
+        <v>-13.315</v>
       </c>
       <c r="D27" t="n">
         <v>-8.550000000000001</v>
@@ -827,7 +827,7 @@
         <v>5.47</v>
       </c>
       <c r="C28" t="n">
-        <v>-12.228</v>
+        <v>-12.692</v>
       </c>
       <c r="D28" t="n">
         <v>-7.75</v>
@@ -942,18 +942,18 @@
         <v>-10.09</v>
       </c>
       <c r="D36" t="n">
-        <v>-7.081999999999999</v>
+        <v>-7.346000000000001</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>-20.108</v>
+        <v>-19.841</v>
       </c>
       <c r="B37" t="n">
         <v>9.41</v>
       </c>
       <c r="C37" t="n">
-        <v>-13.22</v>
+        <v>-12.467</v>
       </c>
       <c r="D37" t="n">
         <v>-7.88</v>
@@ -970,7 +970,7 @@
         <v>-12.46</v>
       </c>
       <c r="D38" t="n">
-        <v>-7.609999999999999</v>
+        <v>-7.674999999999999</v>
       </c>
     </row>
     <row r="39">
@@ -1012,7 +1012,7 @@
         <v>-14.21</v>
       </c>
       <c r="D41" t="n">
-        <v>-7.438</v>
+        <v>-8.275</v>
       </c>
     </row>
     <row r="42">
@@ -1166,7 +1166,7 @@
         <v>-14.35</v>
       </c>
       <c r="D52" t="n">
-        <v>-8.282</v>
+        <v>-8.084999999999999</v>
       </c>
     </row>
     <row r="53">
@@ -1199,7 +1199,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>-22.20800000000001</v>
+        <v>-21.859</v>
       </c>
       <c r="B55" t="n">
         <v>5.38</v>
@@ -1345,7 +1345,7 @@
         <v>6.69</v>
       </c>
       <c r="C65" t="n">
-        <v>-12.934</v>
+        <v>-12.1</v>
       </c>
       <c r="D65" t="n">
         <v>-7.07</v>
@@ -1376,12 +1376,12 @@
         <v>-10.67</v>
       </c>
       <c r="D67" t="n">
-        <v>-8.102</v>
+        <v>-7.709000000000001</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>-21.362</v>
+        <v>-21.536</v>
       </c>
       <c r="B68" t="n">
         <v>4.88</v>
@@ -1457,7 +1457,7 @@
         <v>10.24</v>
       </c>
       <c r="C73" t="n">
-        <v>-11.73</v>
+        <v>-12.685</v>
       </c>
       <c r="D73" t="n">
         <v>-6.42</v>
@@ -1507,7 +1507,7 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>-20.422</v>
+        <v>-20.651</v>
       </c>
       <c r="B77" t="n">
         <v>10.09</v>
@@ -1521,7 +1521,7 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>-19.808</v>
+        <v>-20.15</v>
       </c>
       <c r="B78" t="n">
         <v>9.640000000000001</v>
@@ -1611,7 +1611,7 @@
         <v>4.99</v>
       </c>
       <c r="C84" t="n">
-        <v>-14.45</v>
+        <v>-13.113</v>
       </c>
       <c r="D84" t="n">
         <v>-8.34</v>
@@ -1625,7 +1625,7 @@
         <v>4.31</v>
       </c>
       <c r="C85" t="n">
-        <v>-12.17</v>
+        <v>-12.082</v>
       </c>
       <c r="D85" t="n">
         <v>-7.87</v>
@@ -1684,7 +1684,7 @@
         <v>-14.65</v>
       </c>
       <c r="D89" t="n">
-        <v>-8.209999999999999</v>
+        <v>-8.183</v>
       </c>
     </row>
     <row r="90">
@@ -1737,7 +1737,7 @@
         <v>4.28</v>
       </c>
       <c r="C93" t="n">
-        <v>-12.406</v>
+        <v>-11.417</v>
       </c>
       <c r="D93" t="n">
         <v>-5.79</v>
@@ -1765,10 +1765,10 @@
         <v>7.55</v>
       </c>
       <c r="C95" t="n">
-        <v>-12.368</v>
+        <v>-12.014</v>
       </c>
       <c r="D95" t="n">
-        <v>-7.524000000000001</v>
+        <v>-7.580000000000001</v>
       </c>
     </row>
     <row r="96">
@@ -1807,7 +1807,7 @@
         <v>5.8</v>
       </c>
       <c r="C98" t="n">
-        <v>-13.408</v>
+        <v>-13.12</v>
       </c>
       <c r="D98" t="n">
         <v>-8.529999999999999</v>
@@ -1821,7 +1821,7 @@
         <v>5.08</v>
       </c>
       <c r="C99" t="n">
-        <v>-11.162</v>
+        <v>-11.299</v>
       </c>
       <c r="D99" t="n">
         <v>-7.59</v>
@@ -1849,7 +1849,7 @@
         <v>8.42</v>
       </c>
       <c r="C101" t="n">
-        <v>-12.636</v>
+        <v>-12.436</v>
       </c>
       <c r="D101" t="n">
         <v>-7.98</v>
@@ -1908,7 +1908,7 @@
         <v>-12</v>
       </c>
       <c r="D105" t="n">
-        <v>-8.296000000000001</v>
+        <v>-7.834000000000001</v>
       </c>
     </row>
   </sheetData>
